--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:41:09+00:00</t>
+    <t>2025-10-23T09:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:05:48+00:00</t>
+    <t>2025-10-27T10:36:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:36:37+00:00</t>
+    <t>2025-10-30T10:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:02:42+00:00</t>
+    <t>2025-10-30T10:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:05:12+00:00</t>
+    <t>2025-10-30T11:02:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T11:02:24+00:00</t>
+    <t>2025-10-31T12:12:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T12:12:50+00:00</t>
+    <t>2025-11-03T16:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/StructureDefinition/initial-care-intensity-ext</t>
+    <t>http://tecnomod-um.org/StructureDefinition/initial-care-intensity-ext</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T16:51:09+00:00</t>
+    <t>2025-11-06T10:00:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -341,7 +341,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/initial-care-intensity-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/initial-care-intensity-vs</t>
   </si>
   <si>
     <t xml:space="preserve">ext-1
@@ -696,7 +696,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="39.96875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.91015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:00:48+00:00</t>
+    <t>2025-11-18T09:01:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:01:12+00:00</t>
+    <t>2025-11-18T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:36:46+00:00</t>
+    <t>2025-11-18T09:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:43:16+00:00</t>
+    <t>2025-11-18T10:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:05:08+00:00</t>
+    <t>2025-11-18T10:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:22:08+00:00</t>
+    <t>2025-11-18T10:33:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:33:59+00:00</t>
+    <t>2025-11-18T10:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:41:07+00:00</t>
+    <t>2025-11-18T10:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:43:22+00:00</t>
+    <t>2025-11-18T10:45:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:45:59+00:00</t>
+    <t>2025-11-18T10:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:58:35+00:00</t>
+    <t>2025-11-18T11:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:10:00+00:00</t>
+    <t>2025-11-18T11:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:17:36+00:00</t>
+    <t>2025-11-18T11:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:44:59+00:00</t>
+    <t>2025-11-18T11:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:54:03+00:00</t>
+    <t>2025-11-19T08:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:51:11+00:00</t>
+    <t>2025-11-19T08:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:58:25+00:00</t>
+    <t>2025-11-19T09:26:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-initial-care-intensity-ext.xlsx
+++ b/StructureDefinition-initial-care-intensity-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T09:26:24+00:00</t>
+    <t>2025-11-19T10:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
